--- a/Dokumentasi/Test Case Plan Final Project Web .xlsx
+++ b/Dokumentasi/Test Case Plan Final Project Web .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095053\Documents\Final Project Katalon\Final-Project-Katalon-WEB-Testing\Dokumentasi Project from Kode.id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095053\Documents\Final Project Katalon\Final-Project-Katalon-WEB-Testing\Dokumentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="175">
   <si>
     <t>Created By</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Arrifqi Aziz Ardhiansyah</t>
-  </si>
-  <si>
-    <t>2. Navigate to https://katalon-demo-cura.herokuapp.com/</t>
   </si>
   <si>
     <t>Review testing from https://katalon-demo-cura.herokuapp.com/</t>
@@ -883,6 +880,48 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>LOGIN - 01</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>login with DDT</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Click Login</t>
+  </si>
+  <si>
+    <t>4. Username and Email will filled by DDT</t>
+  </si>
+  <si>
+    <t>5. Click Login</t>
+  </si>
+  <si>
+    <t>Username : Column email in Data File</t>
+  </si>
+  <si>
+    <t>Password:  Column password in Data File</t>
+  </si>
+  <si>
+    <t>Username and Email will filled by DDT</t>
+  </si>
+  <si>
+    <t>Verify Login Failed</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1418,11 +1457,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1560,13 +1623,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1585,20 +1644,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1607,85 +1692,36 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1693,10 +1729,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1709,48 +1763,62 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,17 +1827,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,24 +2082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="117" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="118"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -2088,24 +2154,24 @@
       <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="114">
+      <c r="H3" s="65"/>
+      <c r="I3" s="62">
         <v>44753</v>
       </c>
-      <c r="J3" s="115"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2160,19 +2226,19 @@
       <c r="AD4" s="3"/>
     </row>
     <row r="5" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="84" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2212,9 +2278,9 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
@@ -2286,15 +2352,15 @@
         <v>11</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="113"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="24" t="s">
         <v>13</v>
       </c>
@@ -2305,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="27"/>
@@ -2328,27 +2394,27 @@
       <c r="AD8" s="18"/>
     </row>
     <row r="9" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="67" t="s">
+      <c r="D9" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>17</v>
@@ -2356,7 +2422,7 @@
       <c r="J9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="18"/>
@@ -2380,17 +2446,17 @@
       <c r="AD9" s="18"/>
     </row>
     <row r="10" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="74"/>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>19</v>
@@ -2398,7 +2464,7 @@
       <c r="J10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="61"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="18"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -2420,23 +2486,23 @@
       <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="74"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="61"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="18"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -2458,19 +2524,19 @@
       <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="88"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="80"/>
       <c r="H12" s="16"/>
       <c r="I12" s="19"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="18"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -2492,27 +2558,27 @@
       <c r="AD12" s="18"/>
     </row>
     <row r="13" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="81" t="s">
+      <c r="A13" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>17</v>
@@ -2520,7 +2586,7 @@
       <c r="J13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="18"/>
@@ -2544,17 +2610,17 @@
       <c r="AD13" s="18"/>
     </row>
     <row r="14" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="74"/>
       <c r="H14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>19</v>
@@ -2562,7 +2628,7 @@
       <c r="J14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="61"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="18"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -2584,23 +2650,23 @@
       <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="68"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="74"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="61"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="18"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -2622,19 +2688,19 @@
       <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="88"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="80"/>
       <c r="H16" s="16"/>
       <c r="I16" s="19"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="18"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -2656,27 +2722,27 @@
       <c r="AD16" s="18"/>
     </row>
     <row r="17" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="67" t="s">
+      <c r="D17" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>17</v>
@@ -2684,7 +2750,7 @@
       <c r="J17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="14"/>
@@ -2708,17 +2774,17 @@
       <c r="AD17" s="18"/>
     </row>
     <row r="18" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="102"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="99"/>
       <c r="H18" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>19</v>
@@ -2726,7 +2792,7 @@
       <c r="J18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -2748,23 +2814,23 @@
       <c r="AD18" s="18"/>
     </row>
     <row r="19" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="102"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="99"/>
       <c r="H19" s="46"/>
       <c r="I19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="61"/>
+        <v>51</v>
+      </c>
+      <c r="K19" s="71"/>
       <c r="L19" s="14"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -2786,19 +2852,19 @@
       <c r="AD19" s="18"/>
     </row>
     <row r="20" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="97"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="88"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="80"/>
       <c r="H20" s="16"/>
       <c r="I20" s="19"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -2820,27 +2886,27 @@
       <c r="AD20" s="18"/>
     </row>
     <row r="21" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="81" t="s">
+      <c r="A21" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>17</v>
@@ -2848,7 +2914,7 @@
       <c r="J21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="18"/>
@@ -2872,17 +2938,17 @@
       <c r="AD21" s="18"/>
     </row>
     <row r="22" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="102"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="99"/>
       <c r="H22" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>19</v>
@@ -2890,7 +2956,7 @@
       <c r="J22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="61"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -2912,23 +2978,23 @@
       <c r="AD22" s="18"/>
     </row>
     <row r="23" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="102"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="99"/>
       <c r="H23" s="46"/>
       <c r="I23" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="61"/>
+        <v>53</v>
+      </c>
+      <c r="K23" s="71"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
@@ -2950,19 +3016,19 @@
       <c r="AD23" s="18"/>
     </row>
     <row r="24" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="88"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="80"/>
       <c r="H24" s="16"/>
       <c r="I24" s="19"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="66"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
@@ -2984,25 +3050,25 @@
       <c r="AD24" s="18"/>
     </row>
     <row r="25" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="103" t="s">
+      <c r="A25" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="D25" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="67" t="s">
+      <c r="E25" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="74"/>
       <c r="H25" s="15"/>
       <c r="I25" s="18" t="s">
         <v>17</v>
@@ -3010,7 +3076,7 @@
       <c r="J25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="18"/>
@@ -3034,15 +3100,15 @@
       <c r="AD25" s="18"/>
     </row>
     <row r="26" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="97"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="68"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="74"/>
       <c r="H26" s="15"/>
       <c r="I26" s="31" t="s">
         <v>19</v>
@@ -3050,7 +3116,7 @@
       <c r="J26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="61"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -3072,23 +3138,23 @@
       <c r="AD26" s="18"/>
     </row>
     <row r="27" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="68"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="74"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="61"/>
+        <v>58</v>
+      </c>
+      <c r="K27" s="71"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
@@ -3110,21 +3176,21 @@
       <c r="AD27" s="18"/>
     </row>
     <row r="28" spans="1:30" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="88"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="16"/>
       <c r="I28" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="66"/>
+        <v>59</v>
+      </c>
+      <c r="K28" s="72"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -3146,27 +3212,27 @@
       <c r="AD28" s="18"/>
     </row>
     <row r="29" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="81" t="s">
+      <c r="A29" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="F29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="74"/>
+      <c r="H29" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>17</v>
@@ -3174,7 +3240,7 @@
       <c r="J29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="18"/>
@@ -3198,17 +3264,17 @@
       <c r="AD29" s="18"/>
     </row>
     <row r="30" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="68"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="74"/>
       <c r="H30" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>19</v>
@@ -3216,7 +3282,7 @@
       <c r="J30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
@@ -3238,25 +3304,25 @@
       <c r="AD30" s="18"/>
     </row>
     <row r="31" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="68"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="74"/>
       <c r="H31" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="61"/>
+        <v>72</v>
+      </c>
+      <c r="K31" s="71"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
@@ -3278,21 +3344,21 @@
       <c r="AD31" s="18"/>
     </row>
     <row r="32" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="65"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="76"/>
       <c r="H32" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
-      <c r="K32" s="61"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -3314,21 +3380,21 @@
       <c r="AD32" s="18"/>
     </row>
     <row r="33" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="65"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="76"/>
       <c r="H33" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="61"/>
+      <c r="K33" s="71"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
@@ -3350,19 +3416,19 @@
       <c r="AD33" s="18"/>
     </row>
     <row r="34" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="66"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
@@ -3384,27 +3450,27 @@
       <c r="AD34" s="18"/>
     </row>
     <row r="35" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="81" t="s">
+      <c r="A35" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="68"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>17</v>
@@ -3412,7 +3478,7 @@
       <c r="J35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="60" t="s">
+      <c r="K35" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L35" s="18"/>
@@ -3436,17 +3502,17 @@
       <c r="AD35" s="18"/>
     </row>
     <row r="36" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="68"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="74"/>
       <c r="H36" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>19</v>
@@ -3454,7 +3520,7 @@
       <c r="J36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -3476,25 +3542,25 @@
       <c r="AD36" s="18"/>
     </row>
     <row r="37" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="68"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="74"/>
       <c r="H37" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="61"/>
+        <v>77</v>
+      </c>
+      <c r="K37" s="71"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -3516,21 +3582,21 @@
       <c r="AD37" s="18"/>
     </row>
     <row r="38" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="65"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="76"/>
       <c r="H38" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="61"/>
+      <c r="K38" s="71"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -3552,21 +3618,21 @@
       <c r="AD38" s="18"/>
     </row>
     <row r="39" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="65"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="76"/>
       <c r="H39" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="61"/>
+      <c r="K39" s="71"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
@@ -3588,21 +3654,21 @@
       <c r="AD39" s="18"/>
     </row>
     <row r="40" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="88"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="66"/>
+        <v>30</v>
+      </c>
+      <c r="K40" s="72"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
@@ -3624,27 +3690,27 @@
       <c r="AD40" s="18"/>
     </row>
     <row r="41" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="81" t="s">
+      <c r="A41" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>17</v>
@@ -3652,7 +3718,7 @@
       <c r="J41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L41" s="18"/>
@@ -3676,17 +3742,17 @@
       <c r="AD41" s="18"/>
     </row>
     <row r="42" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="68"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="74"/>
       <c r="H42" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>19</v>
@@ -3694,7 +3760,7 @@
       <c r="J42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
@@ -3716,25 +3782,25 @@
       <c r="AD42" s="18"/>
     </row>
     <row r="43" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="68"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="74"/>
       <c r="H43" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="61"/>
+        <v>81</v>
+      </c>
+      <c r="K43" s="71"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
@@ -3756,21 +3822,21 @@
       <c r="AD43" s="18"/>
     </row>
     <row r="44" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="65"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="76"/>
       <c r="H44" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="61"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -3792,21 +3858,21 @@
       <c r="AD44" s="18"/>
     </row>
     <row r="45" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="65"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="76"/>
       <c r="H45" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="61"/>
+      <c r="K45" s="71"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -3828,19 +3894,19 @@
       <c r="AD45" s="18"/>
     </row>
     <row r="46" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="88"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="66"/>
+      <c r="K46" s="72"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -3862,27 +3928,27 @@
       <c r="AD46" s="18"/>
     </row>
     <row r="47" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="81" t="s">
+      <c r="A47" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="74"/>
       <c r="H47" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>17</v>
@@ -3890,7 +3956,7 @@
       <c r="J47" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="60" t="s">
+      <c r="K47" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L47" s="18"/>
@@ -3914,17 +3980,17 @@
       <c r="AD47" s="18"/>
     </row>
     <row r="48" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="68"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="74"/>
       <c r="H48" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48" s="31" t="s">
         <v>19</v>
@@ -3932,7 +3998,7 @@
       <c r="J48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="61"/>
+      <c r="K48" s="71"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
@@ -3954,25 +4020,25 @@
       <c r="AD48" s="18"/>
     </row>
     <row r="49" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="68"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="74"/>
       <c r="H49" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="K49" s="61"/>
+        <v>68</v>
+      </c>
+      <c r="I49" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="71"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
@@ -3994,21 +4060,21 @@
       <c r="AD49" s="18"/>
     </row>
     <row r="50" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="64" t="s">
+      <c r="A50" s="104"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="76"/>
+      <c r="H50" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="61"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
@@ -4030,21 +4096,21 @@
       <c r="AD50" s="18"/>
     </row>
     <row r="51" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="65"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="76"/>
       <c r="H51" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="61"/>
+        <v>85</v>
+      </c>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
@@ -4066,19 +4132,19 @@
       <c r="AD51" s="18"/>
     </row>
     <row r="52" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="88"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
-      <c r="K52" s="66"/>
+      <c r="K52" s="72"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
@@ -4100,27 +4166,27 @@
       <c r="AD52" s="18"/>
     </row>
     <row r="53" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="81" t="s">
+      <c r="A53" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="68"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>17</v>
@@ -4128,7 +4194,7 @@
       <c r="J53" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L53" s="18"/>
@@ -4152,17 +4218,17 @@
       <c r="AD53" s="18"/>
     </row>
     <row r="54" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="74"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="68"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="74"/>
       <c r="H54" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>19</v>
@@ -4170,7 +4236,7 @@
       <c r="J54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="61"/>
+      <c r="K54" s="71"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
@@ -4192,25 +4258,25 @@
       <c r="AD54" s="18"/>
     </row>
     <row r="55" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="74"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="68"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="74"/>
       <c r="H55" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="K55" s="71"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
@@ -4232,21 +4298,21 @@
       <c r="AD55" s="18"/>
     </row>
     <row r="56" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="65"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="76"/>
       <c r="H56" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="31"/>
       <c r="J56" s="31"/>
-      <c r="K56" s="61"/>
+      <c r="K56" s="71"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
@@ -4268,21 +4334,21 @@
       <c r="AD56" s="18"/>
     </row>
     <row r="57" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="74"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="65"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="76"/>
       <c r="H57" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" s="31"/>
       <c r="J57" s="31"/>
-      <c r="K57" s="61"/>
+      <c r="K57" s="71"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
@@ -4304,19 +4370,19 @@
       <c r="AD57" s="18"/>
     </row>
     <row r="58" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="88"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="66"/>
+      <c r="K58" s="72"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
@@ -4338,27 +4404,27 @@
       <c r="AD58" s="18"/>
     </row>
     <row r="59" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="81" t="s">
+      <c r="A59" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="67" t="s">
+      <c r="F59" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="68"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>17</v>
@@ -4366,7 +4432,7 @@
       <c r="J59" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="60" t="s">
+      <c r="K59" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L59" s="18"/>
@@ -4390,17 +4456,17 @@
       <c r="AD59" s="18"/>
     </row>
     <row r="60" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="74"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="68"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="74"/>
       <c r="H60" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I60" s="31" t="s">
         <v>19</v>
@@ -4408,7 +4474,7 @@
       <c r="J60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="61"/>
+      <c r="K60" s="71"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
@@ -4430,25 +4496,25 @@
       <c r="AD60" s="18"/>
     </row>
     <row r="61" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="74"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="68"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="74"/>
       <c r="H61" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I61" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K61" s="61"/>
+      <c r="K61" s="71"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
@@ -4470,21 +4536,21 @@
       <c r="AD61" s="18"/>
     </row>
     <row r="62" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="74"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" s="65"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="76"/>
       <c r="H62" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="61"/>
+      <c r="K62" s="71"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
@@ -4506,21 +4572,21 @@
       <c r="AD62" s="18"/>
     </row>
     <row r="63" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="74"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="65"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="76"/>
       <c r="H63" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I63" s="31"/>
       <c r="J63" s="31"/>
-      <c r="K63" s="61"/>
+      <c r="K63" s="71"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
@@ -4542,19 +4608,19 @@
       <c r="AD63" s="18"/>
     </row>
     <row r="64" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="75"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="88"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
-      <c r="K64" s="66"/>
+      <c r="K64" s="72"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
@@ -4576,27 +4642,27 @@
       <c r="AD64" s="18"/>
     </row>
     <row r="65" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="67" t="s">
+      <c r="A65" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="68"/>
+      <c r="G65" s="74"/>
       <c r="H65" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>17</v>
@@ -4604,7 +4670,7 @@
       <c r="J65" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L65" s="18"/>
@@ -4628,17 +4694,17 @@
       <c r="AD65" s="18"/>
     </row>
     <row r="66" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="68"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="74"/>
       <c r="H66" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" s="31" t="s">
         <v>19</v>
@@ -4646,7 +4712,7 @@
       <c r="J66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="61"/>
+      <c r="K66" s="71"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
@@ -4668,25 +4734,25 @@
       <c r="AD66" s="18"/>
     </row>
     <row r="67" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="74"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" s="68"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="74"/>
       <c r="H67" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K67" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="K67" s="71"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
@@ -4708,25 +4774,25 @@
       <c r="AD67" s="18"/>
     </row>
     <row r="68" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="74"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="65"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="76"/>
       <c r="H68" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="K68" s="61"/>
+        <v>99</v>
+      </c>
+      <c r="K68" s="71"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
@@ -4748,21 +4814,21 @@
       <c r="AD68" s="18"/>
     </row>
     <row r="69" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="74"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="65"/>
+      <c r="A69" s="104"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="76"/>
       <c r="H69" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="31"/>
-      <c r="K69" s="61"/>
+      <c r="K69" s="71"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
@@ -4784,19 +4850,19 @@
       <c r="AD69" s="18"/>
     </row>
     <row r="70" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="75"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="88"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="80"/>
       <c r="H70" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
-      <c r="K70" s="66"/>
+      <c r="K70" s="72"/>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
@@ -4818,27 +4884,27 @@
       <c r="AD70" s="18"/>
     </row>
     <row r="71" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="67" t="s">
+      <c r="A71" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="68"/>
+      <c r="G71" s="74"/>
       <c r="H71" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>17</v>
@@ -4846,7 +4912,7 @@
       <c r="J71" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="60" t="s">
+      <c r="K71" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L71" s="18"/>
@@ -4870,17 +4936,17 @@
       <c r="AD71" s="18"/>
     </row>
     <row r="72" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="74"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="68"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="74"/>
       <c r="H72" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I72" s="31" t="s">
         <v>19</v>
@@ -4888,7 +4954,7 @@
       <c r="J72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="61"/>
+      <c r="K72" s="71"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
@@ -4910,25 +4976,25 @@
       <c r="AD72" s="18"/>
     </row>
     <row r="73" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="74"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="68"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="74"/>
       <c r="H73" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K73" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="K73" s="71"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
@@ -4950,25 +5016,25 @@
       <c r="AD73" s="18"/>
     </row>
     <row r="74" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="65"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" s="76"/>
       <c r="H74" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J74" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="K74" s="61"/>
+        <v>99</v>
+      </c>
+      <c r="K74" s="71"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
@@ -4990,21 +5056,21 @@
       <c r="AD74" s="18"/>
     </row>
     <row r="75" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="74"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G75" s="65"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="76"/>
       <c r="H75" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I75" s="31"/>
       <c r="J75" s="31"/>
-      <c r="K75" s="61"/>
+      <c r="K75" s="71"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
@@ -5026,19 +5092,19 @@
       <c r="AD75" s="18"/>
     </row>
     <row r="76" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="75"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="88"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
       <c r="H76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
-      <c r="K76" s="66"/>
+      <c r="K76" s="72"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
@@ -5060,33 +5126,33 @@
       <c r="AD76" s="18"/>
     </row>
     <row r="77" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="79" t="s">
+      <c r="A77" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="81" t="s">
+      <c r="E77" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="G77" s="68"/>
+      <c r="G77" s="74"/>
       <c r="H77" s="15"/>
       <c r="I77" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J77" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K77" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="K77" s="111" t="s">
         <v>7</v>
       </c>
       <c r="L77" s="18"/>
@@ -5110,23 +5176,23 @@
       <c r="AD77" s="18"/>
     </row>
     <row r="78" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="74"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G78" s="68"/>
+      <c r="A78" s="104"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" s="74"/>
       <c r="H78" s="15"/>
       <c r="I78" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K78" s="93"/>
+        <v>119</v>
+      </c>
+      <c r="K78" s="112"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
@@ -5148,17 +5214,17 @@
       <c r="AD78" s="18"/>
     </row>
     <row r="79" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="74"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="68"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="74"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="93"/>
+      <c r="K79" s="112"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
@@ -5180,17 +5246,17 @@
       <c r="AD79" s="18"/>
     </row>
     <row r="80" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="74"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
+      <c r="A80" s="104"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="50"/>
       <c r="I80" s="31"/>
       <c r="J80" s="31"/>
-      <c r="K80" s="93"/>
+      <c r="K80" s="112"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
@@ -5212,17 +5278,17 @@
       <c r="AD80" s="18"/>
     </row>
     <row r="81" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="74"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="50"/>
       <c r="I81" s="31"/>
       <c r="J81" s="31"/>
-      <c r="K81" s="93"/>
+      <c r="K81" s="112"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
@@ -5244,17 +5310,17 @@
       <c r="AD81" s="18"/>
     </row>
     <row r="82" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="75"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="88"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="16"/>
       <c r="I82" s="19"/>
       <c r="J82" s="19"/>
-      <c r="K82" s="94"/>
+      <c r="K82" s="113"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
@@ -5276,33 +5342,33 @@
       <c r="AD82" s="18"/>
     </row>
     <row r="83" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="76" t="s">
+      <c r="C83" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="68"/>
+      <c r="D83" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="74"/>
       <c r="H83" s="15"/>
       <c r="I83" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J83" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="K83" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L83" s="18"/>
@@ -5326,23 +5392,23 @@
       <c r="AD83" s="18"/>
     </row>
     <row r="84" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="74"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G84" s="68"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="G84" s="74"/>
       <c r="H84" s="15"/>
       <c r="I84" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J84" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K84" s="61"/>
+        <v>162</v>
+      </c>
+      <c r="K84" s="71"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
@@ -5364,23 +5430,23 @@
       <c r="AD84" s="18"/>
     </row>
     <row r="85" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="74"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="68"/>
+      <c r="A85" s="104"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="74"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K85" s="61"/>
+        <v>163</v>
+      </c>
+      <c r="K85" s="71"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
@@ -5402,19 +5468,19 @@
       <c r="AD85" s="18"/>
     </row>
     <row r="86" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="74"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="G86" s="65"/>
+      <c r="A86" s="104"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G86" s="76"/>
       <c r="H86" s="50"/>
       <c r="I86" s="31"/>
       <c r="J86" s="31"/>
-      <c r="K86" s="61"/>
+      <c r="K86" s="71"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
@@ -5436,17 +5502,17 @@
       <c r="AD86" s="18"/>
     </row>
     <row r="87" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="74"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="A87" s="104"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="50"/>
       <c r="I87" s="31"/>
       <c r="J87" s="31"/>
-      <c r="K87" s="61"/>
+      <c r="K87" s="71"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
@@ -5468,17 +5534,17 @@
       <c r="AD87" s="18"/>
     </row>
     <row r="88" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="75"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="88"/>
+      <c r="A88" s="105"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="80"/>
       <c r="H88" s="16"/>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="66"/>
+      <c r="K88" s="72"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
@@ -5500,35 +5566,35 @@
       <c r="AD88" s="18"/>
     </row>
     <row r="89" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="C89" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="D89" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="F89" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" s="68"/>
+      <c r="G89" s="74"/>
       <c r="H89" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K89" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K89" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L89" s="18"/>
@@ -5552,25 +5618,25 @@
       <c r="AD89" s="18"/>
     </row>
     <row r="90" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="74"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="G90" s="68"/>
+      <c r="A90" s="104"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="74"/>
       <c r="H90" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J90" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K90" s="61"/>
+        <v>144</v>
+      </c>
+      <c r="K90" s="71"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
@@ -5592,25 +5658,25 @@
       <c r="AD90" s="18"/>
     </row>
     <row r="91" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="74"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="68"/>
+      <c r="A91" s="104"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="74"/>
       <c r="H91" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K91" s="61"/>
+        <v>145</v>
+      </c>
+      <c r="K91" s="71"/>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
@@ -5632,23 +5698,23 @@
       <c r="AD91" s="18"/>
     </row>
     <row r="92" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="74"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
+      <c r="A92" s="104"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="76"/>
       <c r="H92" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J92" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K92" s="61"/>
+        <v>146</v>
+      </c>
+      <c r="K92" s="71"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
@@ -5670,23 +5736,23 @@
       <c r="AD92" s="18"/>
     </row>
     <row r="93" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="74"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
+      <c r="A93" s="104"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="76"/>
       <c r="H93" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J93" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93" s="61"/>
+        <v>147</v>
+      </c>
+      <c r="K93" s="71"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
@@ -5708,19 +5774,19 @@
       <c r="AD93" s="18"/>
     </row>
     <row r="94" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="74"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="70"/>
+      <c r="A94" s="104"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I94" s="31"/>
       <c r="J94" s="31"/>
-      <c r="K94" s="61"/>
+      <c r="K94" s="71"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
@@ -5742,19 +5808,19 @@
       <c r="AD94" s="18"/>
     </row>
     <row r="95" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="74"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="70"/>
+      <c r="A95" s="104"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="109"/>
+      <c r="F95" s="109"/>
+      <c r="G95" s="92"/>
       <c r="H95" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I95" s="31"/>
       <c r="J95" s="31"/>
-      <c r="K95" s="61"/>
+      <c r="K95" s="71"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
@@ -5776,19 +5842,19 @@
       <c r="AD95" s="18"/>
     </row>
     <row r="96" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="74"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="70"/>
+      <c r="A96" s="104"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I96" s="31"/>
       <c r="J96" s="31"/>
-      <c r="K96" s="61"/>
+      <c r="K96" s="71"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
@@ -5810,19 +5876,19 @@
       <c r="AD96" s="18"/>
     </row>
     <row r="97" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="74"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="70"/>
+      <c r="A97" s="104"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="109"/>
+      <c r="F97" s="109"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I97" s="31"/>
       <c r="J97" s="31"/>
-      <c r="K97" s="61"/>
+      <c r="K97" s="71"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
@@ -5844,19 +5910,19 @@
       <c r="AD97" s="18"/>
     </row>
     <row r="98" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="74"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="70"/>
+      <c r="A98" s="104"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="92"/>
       <c r="H98" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
-      <c r="K98" s="61"/>
+      <c r="K98" s="71"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
@@ -5878,19 +5944,19 @@
       <c r="AD98" s="18"/>
     </row>
     <row r="99" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="75"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="52" t="s">
-        <v>143</v>
+      <c r="A99" s="105"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="51" t="s">
+        <v>142</v>
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
-      <c r="K99" s="66"/>
+      <c r="K99" s="72"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
@@ -5912,33 +5978,33 @@
       <c r="AD99" s="18"/>
     </row>
     <row r="100" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="C100" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="D100" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="121"/>
       <c r="H100" s="15"/>
       <c r="I100" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="K100" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="K100" s="70" t="s">
         <v>6</v>
       </c>
       <c r="L100" s="18"/>
@@ -5962,23 +6028,23 @@
       <c r="AD100" s="18"/>
     </row>
     <row r="101" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="74"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="G101" s="63"/>
+      <c r="A101" s="104"/>
+      <c r="B101" s="115"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="121"/>
       <c r="H101" s="15"/>
       <c r="I101" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K101" s="61"/>
+        <v>144</v>
+      </c>
+      <c r="K101" s="71"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
@@ -6000,23 +6066,23 @@
       <c r="AD101" s="18"/>
     </row>
     <row r="102" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="74"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="G102" s="63"/>
+      <c r="A102" s="104"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" s="121"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J102" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K102" s="61"/>
+        <v>158</v>
+      </c>
+      <c r="K102" s="71"/>
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
@@ -6038,23 +6104,23 @@
       <c r="AD102" s="18"/>
     </row>
     <row r="103" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="74"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="G103" s="65"/>
+      <c r="A103" s="104"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="76"/>
       <c r="H103" s="50"/>
       <c r="I103" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K103" s="61"/>
+        <v>159</v>
+      </c>
+      <c r="K103" s="71"/>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
@@ -6076,23 +6142,23 @@
       <c r="AD103" s="18"/>
     </row>
     <row r="104" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="74"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="G104" s="65"/>
+      <c r="A104" s="104"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G104" s="76"/>
       <c r="H104" s="50"/>
       <c r="I104" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K104" s="61"/>
+        <v>160</v>
+      </c>
+      <c r="K104" s="71"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
@@ -6114,23 +6180,23 @@
       <c r="AD104" s="18"/>
     </row>
     <row r="105" spans="1:30" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="120"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="121"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="G105" s="123"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="J105" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="K105" s="127"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="G105" s="124"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J105" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K105" s="122"/>
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
@@ -6151,194 +6217,239 @@
       <c r="AC105" s="18"/>
       <c r="AD105" s="18"/>
     </row>
-    <row r="106" spans="1:30" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="37"/>
-      <c r="X106" s="37"/>
-      <c r="Y106" s="37"/>
-      <c r="Z106" s="37"/>
-      <c r="AA106" s="37"/>
-      <c r="AB106" s="37"/>
-      <c r="AC106" s="37"/>
-      <c r="AD106" s="37"/>
-    </row>
-    <row r="107" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="37"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
-      <c r="R107" s="37"/>
-      <c r="S107" s="37"/>
-      <c r="T107" s="37"/>
-      <c r="U107" s="37"/>
-      <c r="V107" s="37"/>
-      <c r="W107" s="37"/>
-      <c r="X107" s="37"/>
-      <c r="Y107" s="37"/>
-      <c r="Z107" s="37"/>
-      <c r="AA107" s="37"/>
-      <c r="AB107" s="37"/>
-      <c r="AC107" s="37"/>
-      <c r="AD107" s="37"/>
-    </row>
-    <row r="108" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="37"/>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="37"/>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="37"/>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="37"/>
-    </row>
-    <row r="109" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
-      <c r="U109" s="37"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="37"/>
-      <c r="X109" s="37"/>
-      <c r="Y109" s="37"/>
-      <c r="Z109" s="37"/>
-      <c r="AA109" s="37"/>
-      <c r="AB109" s="37"/>
-      <c r="AC109" s="37"/>
-      <c r="AD109" s="37"/>
-    </row>
-    <row r="110" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
-      <c r="U110" s="37"/>
-      <c r="V110" s="37"/>
-      <c r="W110" s="37"/>
-      <c r="X110" s="37"/>
-      <c r="Y110" s="37"/>
-      <c r="Z110" s="37"/>
-      <c r="AA110" s="37"/>
-      <c r="AB110" s="37"/>
-      <c r="AC110" s="37"/>
-      <c r="AD110" s="37"/>
-    </row>
-    <row r="111" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="37"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37"/>
-      <c r="Q111" s="37"/>
-      <c r="R111" s="37"/>
-      <c r="S111" s="37"/>
-      <c r="T111" s="37"/>
-      <c r="U111" s="37"/>
-      <c r="V111" s="37"/>
-      <c r="W111" s="37"/>
-      <c r="X111" s="37"/>
-      <c r="Y111" s="37"/>
-      <c r="Z111" s="37"/>
-      <c r="AA111" s="37"/>
-      <c r="AB111" s="37"/>
-      <c r="AC111" s="37"/>
-      <c r="AD111" s="37"/>
+    <row r="106" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="74"/>
+      <c r="H106" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I106" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="18"/>
+      <c r="U106" s="18"/>
+      <c r="V106" s="18"/>
+      <c r="W106" s="18"/>
+      <c r="X106" s="18"/>
+      <c r="Y106" s="18"/>
+      <c r="Z106" s="18"/>
+      <c r="AA106" s="18"/>
+      <c r="AB106" s="18"/>
+      <c r="AC106" s="18"/>
+      <c r="AD106" s="18"/>
+    </row>
+    <row r="107" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="104"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="74"/>
+      <c r="H107" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="71"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
+      <c r="Z107" s="18"/>
+      <c r="AA107" s="18"/>
+      <c r="AB107" s="18"/>
+      <c r="AC107" s="18"/>
+      <c r="AD107" s="18"/>
+    </row>
+    <row r="108" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="104"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="74"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="J108" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="K108" s="71"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="18"/>
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="18"/>
+      <c r="Z108" s="18"/>
+      <c r="AA108" s="18"/>
+      <c r="AB108" s="18"/>
+      <c r="AC108" s="18"/>
+      <c r="AD108" s="18"/>
+    </row>
+    <row r="109" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="104"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="109"/>
+      <c r="F109" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" s="76"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K109" s="71"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18"/>
+      <c r="V109" s="18"/>
+      <c r="W109" s="18"/>
+      <c r="X109" s="18"/>
+      <c r="Y109" s="18"/>
+      <c r="Z109" s="18"/>
+      <c r="AA109" s="18"/>
+      <c r="AB109" s="18"/>
+      <c r="AC109" s="18"/>
+      <c r="AD109" s="18"/>
+    </row>
+    <row r="110" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="104"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="109"/>
+      <c r="F110" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G110" s="76"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="18"/>
+      <c r="U110" s="18"/>
+      <c r="V110" s="18"/>
+      <c r="W110" s="18"/>
+      <c r="X110" s="18"/>
+      <c r="Y110" s="18"/>
+      <c r="Z110" s="18"/>
+      <c r="AA110" s="18"/>
+      <c r="AB110" s="18"/>
+      <c r="AC110" s="18"/>
+      <c r="AD110" s="18"/>
+    </row>
+    <row r="111" spans="1:30" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="118"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="123"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="122"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="18"/>
+      <c r="U111" s="18"/>
+      <c r="V111" s="18"/>
+      <c r="W111" s="18"/>
+      <c r="X111" s="18"/>
+      <c r="Y111" s="18"/>
+      <c r="Z111" s="18"/>
+      <c r="AA111" s="18"/>
+      <c r="AB111" s="18"/>
+      <c r="AC111" s="18"/>
+      <c r="AD111" s="18"/>
     </row>
     <row r="112" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
@@ -6501,7 +6612,7 @@
       <c r="AD116" s="37"/>
     </row>
     <row r="117" spans="1:30" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="54"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="41"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
@@ -6850,8 +6961,8 @@
       <c r="AD127" s="37"/>
     </row>
     <row r="128" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
-      <c r="B128" s="55"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="34"/>
@@ -6882,7 +6993,7 @@
     </row>
     <row r="129" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="45"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="42"/>
       <c r="D129" s="34"/>
       <c r="E129" s="34"/>
@@ -6913,7 +7024,7 @@
     </row>
     <row r="130" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="45"/>
-      <c r="B130" s="55"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="42"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34"/>
@@ -6944,7 +7055,7 @@
     </row>
     <row r="131" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="45"/>
-      <c r="B131" s="55"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="42"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
@@ -6975,8 +7086,8 @@
       <c r="AD131" s="37"/>
     </row>
     <row r="132" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
-      <c r="B132" s="55"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
@@ -7007,7 +7118,7 @@
     </row>
     <row r="133" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="45"/>
-      <c r="B133" s="55"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="42"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34"/>
@@ -7038,7 +7149,7 @@
     </row>
     <row r="134" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="45"/>
-      <c r="B134" s="55"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="42"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
@@ -7069,7 +7180,7 @@
     </row>
     <row r="135" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="45"/>
-      <c r="B135" s="55"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="42"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34"/>
@@ -7100,7 +7211,7 @@
       <c r="AD135" s="37"/>
     </row>
     <row r="136" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="54"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="41"/>
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
@@ -7289,7 +7400,7 @@
       <c r="AD141" s="37"/>
     </row>
     <row r="142" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="54"/>
+      <c r="A142" s="52"/>
       <c r="B142" s="41"/>
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
@@ -7478,7 +7589,7 @@
       <c r="AD147" s="37"/>
     </row>
     <row r="148" spans="1:30" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="54"/>
+      <c r="A148" s="52"/>
       <c r="B148" s="41"/>
       <c r="C148" s="34"/>
       <c r="D148" s="34"/>
@@ -7856,9 +7967,9 @@
       <c r="AD159" s="37"/>
     </row>
     <row r="160" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="56"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="41"/>
-      <c r="C160" s="57"/>
+      <c r="C160" s="55"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
@@ -7888,9 +7999,9 @@
       <c r="AD160" s="37"/>
     </row>
     <row r="161" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="56"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="41"/>
-      <c r="C161" s="57"/>
+      <c r="C161" s="55"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
@@ -7920,9 +8031,9 @@
       <c r="AD161" s="37"/>
     </row>
     <row r="162" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="56"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="41"/>
-      <c r="C162" s="57"/>
+      <c r="C162" s="55"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
@@ -7952,9 +8063,9 @@
       <c r="AD162" s="37"/>
     </row>
     <row r="163" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="56"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="41"/>
-      <c r="C163" s="57"/>
+      <c r="C163" s="55"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
@@ -7984,9 +8095,9 @@
       <c r="AD163" s="37"/>
     </row>
     <row r="164" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="56"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="41"/>
-      <c r="C164" s="57"/>
+      <c r="C164" s="55"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
@@ -8016,9 +8127,9 @@
       <c r="AD164" s="37"/>
     </row>
     <row r="165" spans="1:30" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="56"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="41"/>
-      <c r="C165" s="57"/>
+      <c r="C165" s="55"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
@@ -8058,7 +8169,7 @@
       <c r="H166" s="34"/>
       <c r="I166" s="34"/>
       <c r="J166" s="34"/>
-      <c r="K166" s="58"/>
+      <c r="K166" s="56"/>
       <c r="L166" s="37"/>
       <c r="M166" s="37"/>
       <c r="N166" s="37"/>
@@ -8090,7 +8201,7 @@
       <c r="H167" s="34"/>
       <c r="I167" s="34"/>
       <c r="J167" s="34"/>
-      <c r="K167" s="58"/>
+      <c r="K167" s="56"/>
       <c r="L167" s="37"/>
       <c r="M167" s="37"/>
       <c r="N167" s="37"/>
@@ -8122,7 +8233,7 @@
       <c r="H168" s="34"/>
       <c r="I168" s="34"/>
       <c r="J168" s="34"/>
-      <c r="K168" s="58"/>
+      <c r="K168" s="56"/>
       <c r="L168" s="37"/>
       <c r="M168" s="37"/>
       <c r="N168" s="37"/>
@@ -8154,7 +8265,7 @@
       <c r="H169" s="34"/>
       <c r="I169" s="34"/>
       <c r="J169" s="34"/>
-      <c r="K169" s="58"/>
+      <c r="K169" s="56"/>
       <c r="L169" s="37"/>
       <c r="M169" s="37"/>
       <c r="N169" s="37"/>
@@ -9100,7 +9211,7 @@
       <c r="H199" s="18"/>
       <c r="I199" s="18"/>
       <c r="J199" s="18"/>
-      <c r="K199" s="59"/>
+      <c r="K199" s="57"/>
       <c r="L199" s="18"/>
       <c r="M199" s="18"/>
       <c r="N199" s="18"/>
@@ -9132,7 +9243,7 @@
       <c r="H200" s="18"/>
       <c r="I200" s="18"/>
       <c r="J200" s="18"/>
-      <c r="K200" s="59"/>
+      <c r="K200" s="57"/>
       <c r="L200" s="18"/>
       <c r="M200" s="18"/>
       <c r="N200" s="18"/>
@@ -9161,7 +9272,7 @@
       <c r="H201" s="18"/>
       <c r="I201" s="18"/>
       <c r="J201" s="18"/>
-      <c r="K201" s="59"/>
+      <c r="K201" s="57"/>
       <c r="L201" s="18"/>
       <c r="M201" s="18"/>
       <c r="N201" s="18"/>
@@ -9193,7 +9304,7 @@
       <c r="H202" s="18"/>
       <c r="I202" s="18"/>
       <c r="J202" s="18"/>
-      <c r="K202" s="59"/>
+      <c r="K202" s="57"/>
       <c r="L202" s="18"/>
       <c r="M202" s="18"/>
       <c r="N202" s="18"/>
@@ -9225,7 +9336,7 @@
       <c r="H203" s="18"/>
       <c r="I203" s="18"/>
       <c r="J203" s="18"/>
-      <c r="K203" s="59"/>
+      <c r="K203" s="57"/>
       <c r="L203" s="18"/>
       <c r="M203" s="18"/>
       <c r="N203" s="18"/>
@@ -9257,7 +9368,7 @@
       <c r="H204" s="18"/>
       <c r="I204" s="18"/>
       <c r="J204" s="18"/>
-      <c r="K204" s="59"/>
+      <c r="K204" s="57"/>
       <c r="L204" s="18"/>
       <c r="M204" s="18"/>
       <c r="N204" s="18"/>
@@ -9289,7 +9400,7 @@
       <c r="H205" s="18"/>
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
-      <c r="K205" s="59"/>
+      <c r="K205" s="57"/>
       <c r="L205" s="18"/>
       <c r="M205" s="18"/>
       <c r="N205" s="18"/>
@@ -9321,7 +9432,7 @@
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
-      <c r="K206" s="59"/>
+      <c r="K206" s="57"/>
       <c r="L206" s="18"/>
       <c r="M206" s="18"/>
       <c r="N206" s="18"/>
@@ -9353,7 +9464,7 @@
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
       <c r="J207" s="18"/>
-      <c r="K207" s="59"/>
+      <c r="K207" s="57"/>
       <c r="L207" s="18"/>
       <c r="M207" s="18"/>
       <c r="N207" s="18"/>
@@ -9385,7 +9496,7 @@
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18"/>
-      <c r="K208" s="59"/>
+      <c r="K208" s="57"/>
       <c r="L208" s="18"/>
       <c r="M208" s="18"/>
       <c r="N208" s="18"/>
@@ -9417,7 +9528,7 @@
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
       <c r="J209" s="18"/>
-      <c r="K209" s="59"/>
+      <c r="K209" s="57"/>
       <c r="L209" s="18"/>
       <c r="M209" s="18"/>
       <c r="N209" s="18"/>
@@ -9449,7 +9560,7 @@
       <c r="H210" s="18"/>
       <c r="I210" s="18"/>
       <c r="J210" s="18"/>
-      <c r="K210" s="59"/>
+      <c r="K210" s="57"/>
       <c r="L210" s="18"/>
       <c r="M210" s="18"/>
       <c r="N210" s="18"/>
@@ -9481,7 +9592,7 @@
       <c r="H211" s="18"/>
       <c r="I211" s="18"/>
       <c r="J211" s="18"/>
-      <c r="K211" s="59"/>
+      <c r="K211" s="57"/>
       <c r="L211" s="18"/>
       <c r="M211" s="18"/>
       <c r="N211" s="18"/>
@@ -9513,7 +9624,7 @@
       <c r="H212" s="18"/>
       <c r="I212" s="18"/>
       <c r="J212" s="18"/>
-      <c r="K212" s="59"/>
+      <c r="K212" s="57"/>
       <c r="L212" s="18"/>
       <c r="M212" s="18"/>
       <c r="N212" s="18"/>
@@ -9545,7 +9656,7 @@
       <c r="H213" s="18"/>
       <c r="I213" s="18"/>
       <c r="J213" s="18"/>
-      <c r="K213" s="59"/>
+      <c r="K213" s="57"/>
       <c r="L213" s="18"/>
       <c r="M213" s="18"/>
       <c r="N213" s="18"/>
@@ -9577,7 +9688,7 @@
       <c r="H214" s="18"/>
       <c r="I214" s="18"/>
       <c r="J214" s="18"/>
-      <c r="K214" s="59"/>
+      <c r="K214" s="57"/>
       <c r="L214" s="18"/>
       <c r="M214" s="18"/>
       <c r="N214" s="18"/>
@@ -9609,7 +9720,7 @@
       <c r="H215" s="18"/>
       <c r="I215" s="18"/>
       <c r="J215" s="18"/>
-      <c r="K215" s="59"/>
+      <c r="K215" s="57"/>
       <c r="L215" s="18"/>
       <c r="M215" s="18"/>
       <c r="N215" s="18"/>
@@ -9641,7 +9752,7 @@
       <c r="H216" s="18"/>
       <c r="I216" s="18"/>
       <c r="J216" s="18"/>
-      <c r="K216" s="59"/>
+      <c r="K216" s="57"/>
       <c r="L216" s="18"/>
       <c r="M216" s="18"/>
       <c r="N216" s="18"/>
@@ -9673,7 +9784,7 @@
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
       <c r="J217" s="18"/>
-      <c r="K217" s="59"/>
+      <c r="K217" s="57"/>
       <c r="L217" s="18"/>
       <c r="M217" s="18"/>
       <c r="N217" s="18"/>
@@ -9705,7 +9816,7 @@
       <c r="H218" s="18"/>
       <c r="I218" s="18"/>
       <c r="J218" s="18"/>
-      <c r="K218" s="59"/>
+      <c r="K218" s="57"/>
       <c r="L218" s="18"/>
       <c r="M218" s="18"/>
       <c r="N218" s="18"/>
@@ -9737,7 +9848,7 @@
       <c r="H219" s="18"/>
       <c r="I219" s="18"/>
       <c r="J219" s="18"/>
-      <c r="K219" s="59"/>
+      <c r="K219" s="57"/>
       <c r="L219" s="18"/>
       <c r="M219" s="18"/>
       <c r="N219" s="18"/>
@@ -9769,7 +9880,7 @@
       <c r="H220" s="18"/>
       <c r="I220" s="18"/>
       <c r="J220" s="18"/>
-      <c r="K220" s="59"/>
+      <c r="K220" s="57"/>
       <c r="L220" s="18"/>
       <c r="M220" s="18"/>
       <c r="N220" s="18"/>
@@ -9801,7 +9912,7 @@
       <c r="H221" s="18"/>
       <c r="I221" s="18"/>
       <c r="J221" s="18"/>
-      <c r="K221" s="59"/>
+      <c r="K221" s="57"/>
       <c r="L221" s="18"/>
       <c r="M221" s="18"/>
       <c r="N221" s="18"/>
@@ -9833,7 +9944,7 @@
       <c r="H222" s="18"/>
       <c r="I222" s="18"/>
       <c r="J222" s="18"/>
-      <c r="K222" s="59"/>
+      <c r="K222" s="57"/>
       <c r="L222" s="18"/>
       <c r="M222" s="18"/>
       <c r="N222" s="18"/>
@@ -9865,7 +9976,7 @@
       <c r="H223" s="18"/>
       <c r="I223" s="18"/>
       <c r="J223" s="18"/>
-      <c r="K223" s="59"/>
+      <c r="K223" s="57"/>
       <c r="L223" s="18"/>
       <c r="M223" s="18"/>
       <c r="N223" s="18"/>
@@ -9897,7 +10008,7 @@
       <c r="H224" s="18"/>
       <c r="I224" s="18"/>
       <c r="J224" s="18"/>
-      <c r="K224" s="59"/>
+      <c r="K224" s="57"/>
       <c r="L224" s="18"/>
       <c r="M224" s="18"/>
       <c r="N224" s="18"/>
@@ -9929,7 +10040,7 @@
       <c r="H225" s="18"/>
       <c r="I225" s="18"/>
       <c r="J225" s="18"/>
-      <c r="K225" s="59"/>
+      <c r="K225" s="57"/>
       <c r="L225" s="18"/>
       <c r="M225" s="18"/>
       <c r="N225" s="18"/>
@@ -9961,7 +10072,7 @@
       <c r="H226" s="18"/>
       <c r="I226" s="18"/>
       <c r="J226" s="18"/>
-      <c r="K226" s="59"/>
+      <c r="K226" s="57"/>
       <c r="L226" s="18"/>
       <c r="M226" s="18"/>
       <c r="N226" s="18"/>
@@ -9993,7 +10104,7 @@
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
       <c r="J227" s="18"/>
-      <c r="K227" s="59"/>
+      <c r="K227" s="57"/>
       <c r="L227" s="18"/>
       <c r="M227" s="18"/>
       <c r="N227" s="18"/>
@@ -15707,19 +15818,188 @@
     <row r="1154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
+  <mergeCells count="222">
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K106:K111"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="K100:K105"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="K89:K99"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="C89:C99"/>
+    <mergeCell ref="D89:D99"/>
+    <mergeCell ref="E89:E99"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="D100:D105"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
@@ -15744,180 +16024,23 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
     <mergeCell ref="K53:K58"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="C89:C99"/>
-    <mergeCell ref="D89:D99"/>
-    <mergeCell ref="E89:E99"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="D100:D105"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="K100:K105"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="K89:K99"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
